--- a/components/download_templates/templates/Kayakalp_SC_Excel_Import_Template.xlsx
+++ b/components/download_templates/templates/Kayakalp_SC_Excel_Import_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp formats\Kaykalp Excel Import Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp Excel Import Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF480DC8-F2C0-484F-BE43-4430E04516D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD2ED3-592F-41BB-9256-043018CEC868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8ED15458-0F63-49CF-920A-1317A5D82C25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8ED15458-0F63-49CF-920A-1317A5D82C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Kaykalp SC Quarterly Dataset" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="507">
   <si>
     <t>Ref. No.</t>
   </si>
@@ -1185,14 +1193,6 @@
   </si>
   <si>
     <t>Medicines are arranged systematically</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check all the shelves/racks containing medicines  are labelled in  Storage  and drug store.
-Heavy items are stored at lower shelves/racks
-Fragile items are not stored at the edges of the shelves
-Drugs and consumables are stored away from water and sources of  heat, direct sunlight etc.
-Drugs are not stored at floor and adjacent to wall
-</t>
   </si>
   <si>
     <t>E3.2</t>
@@ -1629,6 +1629,17 @@
   </si>
   <si>
     <t>Kaykalp SC Quarterly Dataset</t>
+  </si>
+  <si>
+    <t>Check that floors and walls of storage for any visible or tangible dirt, grease, stains, etc.
+Check roof, walls, corners of these area for any cobweb, bird nest, vegetation, etc.</t>
+  </si>
+  <si>
+    <t>Check all the shelves/racks containing medicines  are labelled in  Storage  and drug store.
+Heavy items are stored at lower shelves/racks
+Fragile items are not stored at the edges of the shelves
+Drugs and consumables are stored away from water and sources of  heat, direct sunlight etc.
+Drugs are not stored at floor and adjacent to wall.</t>
   </si>
 </sst>
 </file>
@@ -2397,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3E7CC2-4EDD-4121-B745-9E8979EF06A9}">
   <dimension ref="A1:AZ183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2412,7 +2423,7 @@
     <row r="1" spans="1:52" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2521,9 +2532,6 @@
         <v>0</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="AZ7">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:52" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
@@ -3057,7 +3065,7 @@
       </c>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>113</v>
       </c>
@@ -3068,7 +3076,7 @@
         <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>115</v>
+        <v>505</v>
       </c>
       <c r="E42" s="50"/>
       <c r="F42" s="19"/>
@@ -4503,7 +4511,7 @@
       </c>
       <c r="F134" s="15"/>
     </row>
-    <row r="135" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A135" s="16" t="s">
         <v>367</v>
       </c>
@@ -4514,33 +4522,33 @@
         <v>12</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="E135" s="50"/>
       <c r="F135" s="19"/>
     </row>
     <row r="136" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A136" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B136" s="17" t="s">
         <v>370</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>371</v>
       </c>
       <c r="C136" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E136" s="50"/>
       <c r="F136" s="19"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B137" s="13" t="s">
         <v>373</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>374</v>
       </c>
       <c r="C137" s="40"/>
       <c r="D137" s="13"/>
@@ -4549,42 +4557,42 @@
     </row>
     <row r="138" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B138" s="17" t="s">
         <v>375</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>376</v>
       </c>
       <c r="C138" s="18" t="s">
         <v>163</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E138" s="50"/>
       <c r="F138" s="19"/>
     </row>
     <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B139" s="17" t="s">
         <v>378</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>379</v>
       </c>
       <c r="C139" s="18" t="s">
         <v>167</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E139" s="50"/>
       <c r="F139" s="19"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>381</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>382</v>
       </c>
       <c r="C140" s="41"/>
       <c r="D140" s="13"/>
@@ -4596,42 +4604,42 @@
     </row>
     <row r="141" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A141" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B141" s="17" t="s">
         <v>383</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>384</v>
       </c>
       <c r="C141" s="18" t="s">
         <v>325</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E141" s="50"/>
       <c r="F141" s="19"/>
     </row>
     <row r="142" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B142" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="C142" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="D142" s="17" t="s">
         <v>388</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>389</v>
       </c>
       <c r="E142" s="50"/>
       <c r="F142" s="19"/>
     </row>
     <row r="143" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="B143" s="30" t="s">
         <v>390</v>
-      </c>
-      <c r="B143" s="30" t="s">
-        <v>391</v>
       </c>
       <c r="C143" s="31"/>
       <c r="D143" s="32"/>
@@ -4640,10 +4648,10 @@
     </row>
     <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B144" s="13" t="s">
         <v>392</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>393</v>
       </c>
       <c r="C144" s="14"/>
       <c r="D144" s="13"/>
@@ -4655,42 +4663,42 @@
     </row>
     <row r="145" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B145" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="C145" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="D145" s="17" t="s">
         <v>396</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>397</v>
       </c>
       <c r="E145" s="50"/>
       <c r="F145" s="19"/>
     </row>
     <row r="146" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B146" s="17" t="s">
         <v>398</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>399</v>
       </c>
       <c r="C146" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E146" s="50"/>
       <c r="F146" s="19"/>
     </row>
     <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>401</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>402</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="13"/>
@@ -4702,42 +4710,42 @@
     </row>
     <row r="148" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B148" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>404</v>
       </c>
       <c r="C148" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E148" s="50"/>
       <c r="F148" s="19"/>
     </row>
     <row r="149" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="B149" s="17" t="s">
         <v>406</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>407</v>
       </c>
       <c r="C149" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E149" s="50"/>
       <c r="F149" s="19"/>
     </row>
     <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B150" s="13" t="s">
         <v>409</v>
-      </c>
-      <c r="B150" s="13" t="s">
-        <v>410</v>
       </c>
       <c r="C150" s="14"/>
       <c r="D150" s="13"/>
@@ -4749,42 +4757,42 @@
     </row>
     <row r="151" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B151" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>412</v>
       </c>
       <c r="C151" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E151" s="50"/>
       <c r="F151" s="19"/>
     </row>
     <row r="152" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A152" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="B152" s="17" t="s">
         <v>414</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>415</v>
       </c>
       <c r="C152" s="18" t="s">
         <v>167</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E152" s="50"/>
       <c r="F152" s="19"/>
     </row>
     <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B153" s="13" t="s">
         <v>417</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>418</v>
       </c>
       <c r="C153" s="14"/>
       <c r="D153" s="13"/>
@@ -4796,42 +4804,42 @@
     </row>
     <row r="154" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B154" s="17" t="s">
         <v>419</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>420</v>
       </c>
       <c r="C154" s="18" t="s">
         <v>167</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E154" s="50"/>
       <c r="F154" s="19"/>
     </row>
     <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B155" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="B155" s="17" t="s">
-        <v>423</v>
       </c>
       <c r="C155" s="18" t="s">
         <v>167</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E155" s="50"/>
       <c r="F155" s="19"/>
     </row>
     <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B156" s="13" t="s">
         <v>425</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>426</v>
       </c>
       <c r="C156" s="14"/>
       <c r="D156" s="13"/>
@@ -4843,42 +4851,42 @@
     </row>
     <row r="157" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="B157" s="17" t="s">
         <v>427</v>
-      </c>
-      <c r="B157" s="17" t="s">
-        <v>428</v>
       </c>
       <c r="C157" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E157" s="50"/>
       <c r="F157" s="19"/>
     </row>
     <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="B158" s="17" t="s">
         <v>430</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>431</v>
       </c>
       <c r="C158" s="18" t="s">
         <v>83</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E158" s="50"/>
       <c r="F158" s="19"/>
     </row>
     <row r="159" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="B159" s="56" t="s">
         <v>433</v>
-      </c>
-      <c r="B159" s="56" t="s">
-        <v>434</v>
       </c>
       <c r="C159" s="57"/>
       <c r="D159" s="57"/>
@@ -4887,10 +4895,10 @@
     </row>
     <row r="160" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="B160" s="52" t="s">
         <v>435</v>
-      </c>
-      <c r="B160" s="52" t="s">
-        <v>436</v>
       </c>
       <c r="C160" s="53"/>
       <c r="D160" s="52"/>
@@ -4902,90 +4910,90 @@
     </row>
     <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="B161" s="17" t="s">
         <v>437</v>
-      </c>
-      <c r="B161" s="17" t="s">
-        <v>438</v>
       </c>
       <c r="C161" s="44" t="s">
         <v>325</v>
       </c>
       <c r="D161" s="45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E161" s="50"/>
       <c r="F161" s="19"/>
     </row>
     <row r="162" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="B162" s="17" t="s">
         <v>440</v>
-      </c>
-      <c r="B162" s="17" t="s">
-        <v>441</v>
       </c>
       <c r="C162" s="44" t="s">
         <v>325</v>
       </c>
       <c r="D162" s="45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E162" s="50"/>
       <c r="F162" s="19"/>
     </row>
     <row r="163" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="B163" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="C163" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="C163" s="44" t="s">
+      <c r="D163" s="45" t="s">
         <v>445</v>
-      </c>
-      <c r="D163" s="45" t="s">
-        <v>446</v>
       </c>
       <c r="E163" s="50"/>
       <c r="F163" s="19"/>
     </row>
     <row r="164" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A164" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="B164" s="17" t="s">
         <v>447</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>448</v>
       </c>
       <c r="C164" s="44" t="s">
         <v>325</v>
       </c>
       <c r="D164" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E164" s="50"/>
       <c r="F164" s="19"/>
     </row>
     <row r="165" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A165" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="B165" s="17" t="s">
         <v>450</v>
-      </c>
-      <c r="B165" s="17" t="s">
-        <v>451</v>
       </c>
       <c r="C165" s="44" t="s">
         <v>325</v>
       </c>
       <c r="D165" s="45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E165" s="50"/>
       <c r="F165" s="19"/>
     </row>
     <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="B166" s="52" t="s">
         <v>453</v>
-      </c>
-      <c r="B166" s="52" t="s">
-        <v>454</v>
       </c>
       <c r="C166" s="53"/>
       <c r="D166" s="52"/>
@@ -4997,90 +5005,90 @@
     </row>
     <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="B167" s="17" t="s">
         <v>455</v>
-      </c>
-      <c r="B167" s="17" t="s">
-        <v>456</v>
       </c>
       <c r="C167" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D167" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E167" s="50"/>
       <c r="F167" s="19"/>
     </row>
     <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="B168" s="17" t="s">
         <v>458</v>
-      </c>
-      <c r="B168" s="17" t="s">
-        <v>459</v>
       </c>
       <c r="C168" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E168" s="50"/>
       <c r="F168" s="19"/>
     </row>
     <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="B169" s="17" t="s">
         <v>461</v>
-      </c>
-      <c r="B169" s="17" t="s">
-        <v>462</v>
       </c>
       <c r="C169" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E169" s="50"/>
       <c r="F169" s="19"/>
     </row>
     <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="B170" s="17" t="s">
         <v>464</v>
-      </c>
-      <c r="B170" s="17" t="s">
-        <v>465</v>
       </c>
       <c r="C170" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D170" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E170" s="50"/>
       <c r="F170" s="19"/>
     </row>
     <row r="171" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="B171" s="17" t="s">
         <v>467</v>
-      </c>
-      <c r="B171" s="17" t="s">
-        <v>468</v>
       </c>
       <c r="C171" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="45" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E171" s="50"/>
       <c r="F171" s="19"/>
     </row>
     <row r="172" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="B172" s="52" t="s">
         <v>470</v>
-      </c>
-      <c r="B172" s="52" t="s">
-        <v>471</v>
       </c>
       <c r="C172" s="53"/>
       <c r="D172" s="52"/>
@@ -5092,90 +5100,90 @@
     </row>
     <row r="173" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B173" s="17" t="s">
         <v>472</v>
-      </c>
-      <c r="B173" s="17" t="s">
-        <v>473</v>
       </c>
       <c r="C173" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E173" s="50"/>
       <c r="F173" s="19"/>
     </row>
     <row r="174" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="43" t="s">
+        <v>474</v>
+      </c>
+      <c r="B174" s="17" t="s">
         <v>475</v>
-      </c>
-      <c r="B174" s="17" t="s">
-        <v>476</v>
       </c>
       <c r="C174" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D174" s="45" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E174" s="50"/>
       <c r="F174" s="19"/>
     </row>
     <row r="175" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A175" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="B175" s="17" t="s">
         <v>478</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>479</v>
       </c>
       <c r="C175" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D175" s="45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E175" s="50"/>
       <c r="F175" s="19"/>
     </row>
     <row r="176" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="B176" s="17" t="s">
         <v>481</v>
-      </c>
-      <c r="B176" s="17" t="s">
-        <v>482</v>
       </c>
       <c r="C176" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E176" s="50"/>
       <c r="F176" s="19"/>
     </row>
     <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="B177" s="45" t="s">
         <v>484</v>
-      </c>
-      <c r="B177" s="45" t="s">
-        <v>485</v>
       </c>
       <c r="C177" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="45" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E177" s="50"/>
       <c r="F177" s="19"/>
     </row>
     <row r="178" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="B178" s="52" t="s">
         <v>487</v>
-      </c>
-      <c r="B178" s="52" t="s">
-        <v>488</v>
       </c>
       <c r="C178" s="53"/>
       <c r="D178" s="52"/>
@@ -5187,80 +5195,80 @@
     </row>
     <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="46" t="s">
+        <v>488</v>
+      </c>
+      <c r="B179" s="17" t="s">
         <v>489</v>
-      </c>
-      <c r="B179" s="17" t="s">
-        <v>490</v>
       </c>
       <c r="C179" s="47" t="s">
         <v>22</v>
       </c>
       <c r="D179" s="45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E179" s="50"/>
       <c r="F179" s="19"/>
     </row>
     <row r="180" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="B180" s="17" t="s">
         <v>492</v>
-      </c>
-      <c r="B180" s="17" t="s">
-        <v>493</v>
       </c>
       <c r="C180" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D180" s="45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E180" s="50"/>
       <c r="F180" s="19"/>
     </row>
     <row r="181" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A181" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="B181" s="17" t="s">
         <v>495</v>
-      </c>
-      <c r="B181" s="17" t="s">
-        <v>496</v>
       </c>
       <c r="C181" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E181" s="50"/>
       <c r="F181" s="19"/>
     </row>
     <row r="182" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="B182" s="17" t="s">
         <v>498</v>
-      </c>
-      <c r="B182" s="17" t="s">
-        <v>499</v>
       </c>
       <c r="C182" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D182" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E182" s="50"/>
       <c r="F182" s="19"/>
     </row>
     <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="B183" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="B183" s="45" t="s">
+      <c r="C183" s="44" t="s">
         <v>502</v>
       </c>
-      <c r="C183" s="44" t="s">
+      <c r="D183" s="45" t="s">
         <v>503</v>
-      </c>
-      <c r="D183" s="45" t="s">
-        <v>504</v>
       </c>
       <c r="E183" s="50"/>
       <c r="F183" s="19"/>
@@ -5276,9 +5284,12 @@
     <mergeCell ref="B87:D87"/>
     <mergeCell ref="B90:D90"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E6 E8:E9 E11:E12 E14:E15 E17:E18 E20:E21 E23:E24 E26:E27 E29:E30 E32:E33 E36:E37 E39:E40 E42:E43 E45:E46 E48:E49 E51:E52 E54:E55 E57:E58 E60:E61 E63:E64 E67:E68 E70:E71 E73:E74 E76:E77 E79:E80 E82:E83 E85:E86 E88:E89 E91:E92 E94:E95 E98:E99 E101:E102 E104:E105 E107:E108 E110:E111 E113:E114 E116:E117 E119:E120 E122:E123 E125:E126 E129:E130 E132:E133 E135:E136 E138:E139 E141:E142 E145:E146 E148:E149 E151:E152 E154:E155 E157:E158 E161:E165 E167:E171 E173:E177 E179:E183" xr:uid="{BE2E3137-5991-41DC-B596-08C838116E5D}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E138:E139 E136" xr:uid="{BE2E3137-5991-41DC-B596-08C838116E5D}">
       <formula1>$AZ$4:$AZ$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E6 E8:E9 E11:E12 E14:E15 E17:E18 E20:E21 E23:E24 E26:E27 E29:E30 E32:E33 E36:E37 E39:E40 E42:E43 E45:E46 E48:E49 E51:E52 E54:E55 E57:E58 E60:E61 E63:E64 E67:E68 E70:E71 E73:E74 E76:E77 E79:E80 E82:E83 E85:E86 E88:E89 E91:E92 E94:E95 E98:E99 E101:E102 E104:E105 E107:E108 E110:E111 E113:E114 E116:E117 E119:E120 E122:E123 E125:E126 E129:E130 E132:E133 E135 E141:E142 E145:E146 E148:E149 E151:E152 E154:E155 E157:E158 E161:E165 E167:E171 E173:E177 E179:E183" xr:uid="{221A312E-4B61-4308-8A14-B2A148D19572}">
+      <formula1>$AZ$4:$AZ$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
